--- a/examples/Users.xlsx
+++ b/examples/Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027B094-D026-4AEE-B193-598CBFA1AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBA56D-763B-48B7-BFA1-C88CC00CED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>login1</t>
   </si>
@@ -116,6 +116,90 @@
   </si>
   <si>
     <t>password12</t>
+  </si>
+  <si>
+    <t>ИмяАдм1</t>
+  </si>
+  <si>
+    <t>ИмяАдм2</t>
+  </si>
+  <si>
+    <t>ИмяАдм3</t>
+  </si>
+  <si>
+    <t>Фиученика1</t>
+  </si>
+  <si>
+    <t>Фиученика2</t>
+  </si>
+  <si>
+    <t>Фиученика3</t>
+  </si>
+  <si>
+    <t>Фиученика4</t>
+  </si>
+  <si>
+    <t>Фиученика5</t>
+  </si>
+  <si>
+    <t>Фиученика6</t>
+  </si>
+  <si>
+    <t>Фиученика7</t>
+  </si>
+  <si>
+    <t>Фиученика8</t>
+  </si>
+  <si>
+    <t>Фиученика9</t>
+  </si>
+  <si>
+    <t>Фиученика10</t>
+  </si>
+  <si>
+    <t>Фиученика11</t>
+  </si>
+  <si>
+    <t>Фиученика12</t>
+  </si>
+  <si>
+    <t>teachlogin1</t>
+  </si>
+  <si>
+    <t>teachpassword1</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>ФИоучителя1</t>
+  </si>
+  <si>
+    <t>teachlogin2</t>
+  </si>
+  <si>
+    <t>teachpassword2</t>
+  </si>
+  <si>
+    <t>ФИоучителя2</t>
+  </si>
+  <si>
+    <t>teachlogin3</t>
+  </si>
+  <si>
+    <t>teachpassword3</t>
+  </si>
+  <si>
+    <t>ФИоучителя3</t>
+  </si>
+  <si>
+    <t>teachlogin4</t>
+  </si>
+  <si>
+    <t>teachpassword4</t>
+  </si>
+  <si>
+    <t>ФИоучителя4</t>
   </si>
 </sst>
 </file>
@@ -475,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +572,7 @@
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -498,8 +582,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -509,8 +596,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -520,8 +610,11 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,8 +624,11 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -542,8 +638,11 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -553,8 +652,11 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -564,8 +666,11 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -575,8 +680,11 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -586,8 +694,11 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -597,8 +708,11 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -608,8 +722,11 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -619,8 +736,11 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -630,8 +750,11 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -641,8 +764,11 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -651,6 +777,65 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Users.xlsx
+++ b/examples/Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBA56D-763B-48B7-BFA1-C88CC00CED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027B094-D026-4AEE-B193-598CBFA1AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>login1</t>
   </si>
@@ -116,90 +116,6 @@
   </si>
   <si>
     <t>password12</t>
-  </si>
-  <si>
-    <t>ИмяАдм1</t>
-  </si>
-  <si>
-    <t>ИмяАдм2</t>
-  </si>
-  <si>
-    <t>ИмяАдм3</t>
-  </si>
-  <si>
-    <t>Фиученика1</t>
-  </si>
-  <si>
-    <t>Фиученика2</t>
-  </si>
-  <si>
-    <t>Фиученика3</t>
-  </si>
-  <si>
-    <t>Фиученика4</t>
-  </si>
-  <si>
-    <t>Фиученика5</t>
-  </si>
-  <si>
-    <t>Фиученика6</t>
-  </si>
-  <si>
-    <t>Фиученика7</t>
-  </si>
-  <si>
-    <t>Фиученика8</t>
-  </si>
-  <si>
-    <t>Фиученика9</t>
-  </si>
-  <si>
-    <t>Фиученика10</t>
-  </si>
-  <si>
-    <t>Фиученика11</t>
-  </si>
-  <si>
-    <t>Фиученика12</t>
-  </si>
-  <si>
-    <t>teachlogin1</t>
-  </si>
-  <si>
-    <t>teachpassword1</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
-    <t>ФИоучителя1</t>
-  </si>
-  <si>
-    <t>teachlogin2</t>
-  </si>
-  <si>
-    <t>teachpassword2</t>
-  </si>
-  <si>
-    <t>ФИоучителя2</t>
-  </si>
-  <si>
-    <t>teachlogin3</t>
-  </si>
-  <si>
-    <t>teachpassword3</t>
-  </si>
-  <si>
-    <t>ФИоучителя3</t>
-  </si>
-  <si>
-    <t>teachlogin4</t>
-  </si>
-  <si>
-    <t>teachpassword4</t>
-  </si>
-  <si>
-    <t>ФИоучителя4</t>
   </si>
 </sst>
 </file>
@@ -559,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +488,7 @@
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,11 +498,8 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -596,11 +509,8 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -610,11 +520,8 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,11 +531,8 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -638,11 +542,8 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -652,11 +553,8 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -666,11 +564,8 @@
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -680,11 +575,8 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -694,11 +586,8 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -708,11 +597,8 @@
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -722,11 +608,8 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -736,11 +619,8 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -750,11 +630,8 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -764,11 +641,8 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -777,65 +651,6 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/examples/Users.xlsx
+++ b/examples/Users.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MadOS\Desktop\Programming\С#\проекты\InfoBase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBA56D-763B-48B7-BFA1-C88CC00CED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81297DEE-4944-45D1-8CCD-C7ED3D20DA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>adminlogin1</t>
+  </si>
+  <si>
+    <t>adminpassword1</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ИмяАдмина1</t>
+  </si>
   <si>
     <t>login1</t>
   </si>
@@ -31,25 +43,7 @@
     <t>user</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>speclogin1</t>
-  </si>
-  <si>
-    <t>specpassword1</t>
-  </si>
-  <si>
-    <t>speclogin2</t>
-  </si>
-  <si>
-    <t>speclogin3</t>
-  </si>
-  <si>
-    <t>specpassword2</t>
-  </si>
-  <si>
-    <t>specpassword3</t>
+    <t>ФИученика1</t>
   </si>
   <si>
     <t>login2</t>
@@ -58,166 +52,69 @@
     <t>password2</t>
   </si>
   <si>
+    <t>ФИученика2</t>
+  </si>
+  <si>
     <t>login3</t>
   </si>
   <si>
     <t>password3</t>
   </si>
   <si>
-    <t>login4</t>
-  </si>
-  <si>
-    <t>password4</t>
-  </si>
-  <si>
-    <t>login5</t>
-  </si>
-  <si>
-    <t>password5</t>
-  </si>
-  <si>
-    <t>login6</t>
-  </si>
-  <si>
-    <t>password6</t>
-  </si>
-  <si>
-    <t>login7</t>
-  </si>
-  <si>
-    <t>password7</t>
-  </si>
-  <si>
-    <t>login8</t>
-  </si>
-  <si>
-    <t>password8</t>
-  </si>
-  <si>
-    <t>login9</t>
-  </si>
-  <si>
-    <t>password9</t>
-  </si>
-  <si>
-    <t>login10</t>
-  </si>
-  <si>
-    <t>password10</t>
-  </si>
-  <si>
-    <t>login11</t>
-  </si>
-  <si>
-    <t>password11</t>
-  </si>
-  <si>
-    <t>login12</t>
+    <t>ФИученика3</t>
+  </si>
+  <si>
+    <t>log1n12</t>
   </si>
   <si>
     <t>password12</t>
   </si>
   <si>
-    <t>ИмяАдм1</t>
-  </si>
-  <si>
-    <t>ИмяАдм2</t>
-  </si>
-  <si>
-    <t>ИмяАдм3</t>
-  </si>
-  <si>
-    <t>Фиученика1</t>
-  </si>
-  <si>
-    <t>Фиученика2</t>
-  </si>
-  <si>
-    <t>Фиученика3</t>
-  </si>
-  <si>
-    <t>Фиученика4</t>
-  </si>
-  <si>
-    <t>Фиученика5</t>
-  </si>
-  <si>
-    <t>Фиученика6</t>
-  </si>
-  <si>
-    <t>Фиученика7</t>
-  </si>
-  <si>
-    <t>Фиученика8</t>
-  </si>
-  <si>
-    <t>Фиученика9</t>
-  </si>
-  <si>
-    <t>Фиученика10</t>
-  </si>
-  <si>
-    <t>Фиученика11</t>
-  </si>
-  <si>
-    <t>Фиученика12</t>
-  </si>
-  <si>
-    <t>teachlogin1</t>
-  </si>
-  <si>
-    <t>teachpassword1</t>
-  </si>
-  <si>
     <t>teacher</t>
   </si>
   <si>
-    <t>ФИоучителя1</t>
-  </si>
-  <si>
-    <t>teachlogin2</t>
-  </si>
-  <si>
-    <t>teachpassword2</t>
-  </si>
-  <si>
-    <t>ФИоучителя2</t>
-  </si>
-  <si>
-    <t>teachlogin3</t>
-  </si>
-  <si>
-    <t>teachpassword3</t>
-  </si>
-  <si>
-    <t>ФИоучителя3</t>
-  </si>
-  <si>
-    <t>teachlogin4</t>
-  </si>
-  <si>
-    <t>teachpassword4</t>
-  </si>
-  <si>
-    <t>ФИоучителя4</t>
+    <t>ФИученика22</t>
+  </si>
+  <si>
+    <t>log1n13</t>
+  </si>
+  <si>
+    <t>password13</t>
+  </si>
+  <si>
+    <t>ФИученика23</t>
+  </si>
+  <si>
+    <t>log1n14</t>
+  </si>
+  <si>
+    <t>password14</t>
+  </si>
+  <si>
+    <t>ФИученика24</t>
+  </si>
+  <si>
+    <t>log1n15</t>
+  </si>
+  <si>
+    <t>password15</t>
+  </si>
+  <si>
+    <t>ФИученика25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -244,7 +141,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,277 +467,125 @@
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter/>
 </worksheet>
 </file>